--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1365.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1365.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.201832695087403</v>
+        <v>1.114708065986633</v>
       </c>
       <c r="B1">
-        <v>2.586133500095112</v>
+        <v>2.809435844421387</v>
       </c>
       <c r="C1">
-        <v>3.76326833802854</v>
+        <v>8.789849281311035</v>
       </c>
       <c r="D1">
-        <v>2.901116352093046</v>
+        <v>2.031454801559448</v>
       </c>
       <c r="E1">
-        <v>1.136079870660627</v>
+        <v>1.137068510055542</v>
       </c>
     </row>
   </sheetData>
